--- a/others/量化投资/THS/自动化交易_同花顺/data/组合持仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合持仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,28 +491,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>601608</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>红旗连锁</t>
+          <t>中信重工</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.45</v>
+        <v>4.16</v>
       </c>
       <c r="F2" t="n">
-        <v>5.14</v>
+        <v>4.15</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.48</v>
+        <v>-0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>-20.31</v>
+        <v>-0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>16.57</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="3">
@@ -526,28 +526,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000807</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>云铝股份</t>
+          <t>红旗连锁</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.542</v>
+        <v>6.45</v>
       </c>
       <c r="F3" t="n">
-        <v>15.4</v>
+        <v>5.28</v>
       </c>
       <c r="G3" t="n">
-        <v>3.44</v>
+        <v>-10.25</v>
       </c>
       <c r="H3" t="n">
-        <v>22.79</v>
+        <v>-17.98</v>
       </c>
       <c r="I3" t="n">
-        <v>6.800000000000001</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="4">
@@ -561,28 +561,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>600161</t>
+          <t>000807</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天坛生物</t>
+          <t>云铝股份</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.98</v>
+        <v>12.542</v>
       </c>
       <c r="F4" t="n">
-        <v>19.08</v>
+        <v>16.96</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.79</v>
+        <v>5.31</v>
       </c>
       <c r="H4" t="n">
-        <v>-20.43</v>
+        <v>35.23</v>
       </c>
       <c r="I4" t="n">
-        <v>6.859999999999999</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="5">
@@ -596,63 +596,63 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>688981</t>
+          <t>600161</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中芯国际</t>
+          <t>天坛生物</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.6932</v>
+        <v>23.98</v>
       </c>
       <c r="F5" t="n">
-        <v>93.18000000000001</v>
+        <v>21.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3.71</v>
+        <v>-2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>771.4000000000001</v>
+        <v>-12.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7152</v>
+        <v>6994</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中线龙头</t>
+          <t>梦想一号</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>605208</t>
+          <t>688981</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>永茂泰</t>
+          <t>中芯国际</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.68</v>
+        <v>10.6932</v>
       </c>
       <c r="F6" t="n">
-        <v>7.35</v>
+        <v>103.78</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.36</v>
+        <v>4.18</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.3</v>
+        <v>870.71</v>
       </c>
       <c r="I6" t="n">
-        <v>70.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
@@ -666,238 +666,308 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>603328</t>
+          <t>605208</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>依顿电子</t>
+          <t>永茂泰</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.67</v>
+        <v>7.68</v>
       </c>
       <c r="F7" t="n">
-        <v>8.949999999999999</v>
+        <v>7.81</v>
       </c>
       <c r="G7" t="n">
-        <v>-23.78</v>
+        <v>5.26</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.12</v>
+        <v>1.69</v>
       </c>
       <c r="I7" t="n">
-        <v>29.38</v>
+        <v>67.86999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19347</v>
+        <v>7152</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>中线龙头</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>001319</t>
+          <t>603328</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>铭科精技</t>
+          <t>依顿电子</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.15</v>
+        <v>10.67</v>
       </c>
       <c r="F8" t="n">
-        <v>23.72</v>
+        <v>10.82</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.75</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.289999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="I8" t="n">
-        <v>9.44</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19347</v>
+        <v>18710</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>用收益率征服您</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>002670</t>
+          <t>300956</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>国盛金控</t>
+          <t>英力股份</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13.95</v>
+        <v>23.598</v>
       </c>
       <c r="F9" t="n">
-        <v>11.98</v>
+        <v>23.46</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.32</v>
+        <v>-0.41</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.12</v>
+        <v>-0.63</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13081</v>
+        <v>18710</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>好赛道出牛股</t>
+          <t>用收益率征服您</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>600276</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恒瑞医药</t>
+          <t>浙江世宝</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-42.5126</v>
+        <v>12.73</v>
       </c>
       <c r="F10" t="n">
-        <v>42.67</v>
+        <v>12.9</v>
       </c>
       <c r="G10" t="n">
-        <v>39.69</v>
+        <v>0.74</v>
       </c>
       <c r="H10" t="n">
-        <v>26.18</v>
+        <v>1.41</v>
       </c>
       <c r="I10" t="n">
-        <v>6.510000000000001</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14980</v>
+        <v>18710</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>波段突击</t>
+          <t>用收益率征服您</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>300613</t>
+          <t>300853</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>富瀚微</t>
+          <t>申昊科技</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>56.2643</v>
+        <v>20.954</v>
       </c>
       <c r="F11" t="n">
-        <v>54.2</v>
+        <v>21.22</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.640000000000001</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.67</v>
+        <v>1.27</v>
       </c>
       <c r="I11" t="n">
-        <v>79.62</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14980</v>
+        <v>18710</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>波段突击</t>
+          <t>用收益率征服您</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>300474</t>
+          <t>300657</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>景嘉微</t>
+          <t>弘信电子</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60.2542</v>
+        <v>25.61</v>
       </c>
       <c r="F12" t="n">
-        <v>89.3</v>
+        <v>26.86</v>
       </c>
       <c r="G12" t="n">
-        <v>20.02</v>
+        <v>2.67</v>
       </c>
       <c r="H12" t="n">
-        <v>48.20999999999999</v>
+        <v>4.88</v>
       </c>
       <c r="I12" t="n">
-        <v>19.38</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>13081</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>好赛道出牛股</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-42.5126</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45.42</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.97</v>
+      </c>
+      <c r="H13" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>14980</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>波段突击</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>301191</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>菲菱科思</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>-89.09610000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9900000000000001</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>300170</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>汉得信息</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>21.0356</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>98.31999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14980</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>波段突击</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>300458</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>全志科技</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-259.0257</v>
+      </c>
+      <c r="F15" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/others/量化投资/THS/自动化交易_同花顺/data/组合持仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合持仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,16 +503,16 @@
         <v>4.16</v>
       </c>
       <c r="F2" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.24</v>
+        <v>-1.44</v>
       </c>
       <c r="I2" t="n">
-        <v>29.93</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="3">
@@ -538,16 +538,16 @@
         <v>6.45</v>
       </c>
       <c r="F3" t="n">
-        <v>5.28</v>
+        <v>5.43</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.25</v>
+        <v>-8.94</v>
       </c>
       <c r="H3" t="n">
-        <v>-17.98</v>
+        <v>-15.81</v>
       </c>
       <c r="I3" t="n">
-        <v>16.69</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4">
@@ -573,16 +573,16 @@
         <v>12.542</v>
       </c>
       <c r="F4" t="n">
-        <v>16.96</v>
+        <v>16.37</v>
       </c>
       <c r="G4" t="n">
-        <v>5.31</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>35.23</v>
+        <v>30.52</v>
       </c>
       <c r="I4" t="n">
-        <v>7.35</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="5">
@@ -608,16 +608,16 @@
         <v>23.98</v>
       </c>
       <c r="F5" t="n">
-        <v>21.02</v>
+        <v>20.31</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.9</v>
+        <v>-3.59</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.3</v>
+        <v>-15.3</v>
       </c>
       <c r="I5" t="n">
-        <v>7.42</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -643,16 +643,16 @@
         <v>10.6932</v>
       </c>
       <c r="F6" t="n">
-        <v>103.78</v>
+        <v>101.11</v>
       </c>
       <c r="G6" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="H6" t="n">
-        <v>870.71</v>
+        <v>845.5500000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="7">
@@ -678,16 +678,16 @@
         <v>7.68</v>
       </c>
       <c r="F7" t="n">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="G7" t="n">
-        <v>5.26</v>
+        <v>5.67</v>
       </c>
       <c r="H7" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
-        <v>67.86999999999999</v>
+        <v>68.63</v>
       </c>
     </row>
     <row r="8">
@@ -713,16 +713,16 @@
         <v>10.67</v>
       </c>
       <c r="F8" t="n">
-        <v>10.82</v>
+        <v>10.46</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>-2.91</v>
       </c>
       <c r="H8" t="n">
-        <v>1.41</v>
+        <v>-1.97</v>
       </c>
       <c r="I8" t="n">
-        <v>32.13</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="9">
@@ -736,168 +736,168 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>300956</t>
+          <t>600941</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>英力股份</t>
+          <t>中国移动</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.598</v>
+        <v>111.1471</v>
       </c>
       <c r="F9" t="n">
-        <v>23.46</v>
+        <v>110.61</v>
       </c>
       <c r="G9" t="n">
         <v>-0.41</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.63</v>
+        <v>-0.48</v>
       </c>
       <c r="I9" t="n">
-        <v>25.02</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18710</v>
+        <v>19347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>用收益率征服您</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>002818</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>浙江世宝</t>
+          <t>富森美</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12.73</v>
+        <v>13.52</v>
       </c>
       <c r="F10" t="n">
-        <v>12.9</v>
+        <v>13.38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.74</v>
+        <v>-1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>1.41</v>
+        <v>-1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>19.99</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18710</v>
+        <v>13081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>用收益率征服您</t>
+          <t>好赛道出牛股</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>300853</t>
+          <t>600276</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>申昊科技</t>
+          <t>恒瑞医药</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.954</v>
+        <v>-42.5126</v>
       </c>
       <c r="F11" t="n">
-        <v>21.22</v>
+        <v>44.64</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8699999999999999</v>
+        <v>40.61</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>26.79</v>
       </c>
       <c r="I11" t="n">
-        <v>24.84</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18710</v>
+        <v>14980</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>用收益率征服您</t>
+          <t>波段突击</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>300657</t>
+          <t>300613</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>弘信电子</t>
+          <t>富瀚微</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.61</v>
+        <v>69.94929999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>26.86</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>2.67</v>
+        <v>-10.66</v>
       </c>
       <c r="H12" t="n">
-        <v>4.88</v>
+        <v>-8.16</v>
       </c>
       <c r="I12" t="n">
-        <v>20.6</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13081</v>
+        <v>14980</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>好赛道出牛股</t>
+          <t>波段突击</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>600276</t>
+          <t>300170</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>恒瑞医药</t>
+          <t>汉得信息</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-42.5126</v>
+        <v>12.2096</v>
       </c>
       <c r="F13" t="n">
-        <v>45.42</v>
+        <v>23.08</v>
       </c>
       <c r="G13" t="n">
-        <v>40.97</v>
+        <v>58.77</v>
       </c>
       <c r="H13" t="n">
-        <v>27.03</v>
+        <v>89.03</v>
       </c>
       <c r="I13" t="n">
-        <v>6.9</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="14">
@@ -911,63 +911,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>300170</t>
+          <t>002929</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>汉得信息</t>
+          <t>润建股份</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.0356</v>
+        <v>51.414</v>
       </c>
       <c r="F14" t="n">
-        <v>21.31</v>
+        <v>50.2</v>
       </c>
       <c r="G14" t="n">
-        <v>4.62</v>
+        <v>-3.81</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4</v>
+        <v>-2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>98.31999999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14980</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>波段突击</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>300458</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>全志科技</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>-259.0257</v>
-      </c>
-      <c r="F15" t="n">
-        <v>51.46</v>
-      </c>
-      <c r="G15" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.12</v>
+        <v>39.02</v>
       </c>
     </row>
   </sheetData>
